--- a/8/1/2/Series ajustadas estacionalmente 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/Series ajustadas estacionalmente 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,25 +672,25 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>5056</v>
+        <v>5058</v>
       </c>
       <c r="C2">
         <v>1943</v>
       </c>
       <c r="D2">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="E2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F2">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="G2">
         <v>1080</v>
       </c>
       <c r="H2">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="I2">
         <v>885</v>
@@ -704,31 +707,31 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="C3">
         <v>2038</v>
       </c>
       <c r="D3">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E3">
         <v>542</v>
       </c>
       <c r="F3">
-        <v>4828</v>
+        <v>4829</v>
       </c>
       <c r="G3">
         <v>1128</v>
       </c>
       <c r="H3">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="I3">
         <v>987</v>
       </c>
       <c r="J3">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K3">
         <v>1147</v>
@@ -739,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>5430</v>
+        <v>5428</v>
       </c>
       <c r="C4">
         <v>2215</v>
@@ -748,7 +751,7 @@
         <v>2656</v>
       </c>
       <c r="E4">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F4">
         <v>4760</v>
@@ -757,7 +760,7 @@
         <v>1207</v>
       </c>
       <c r="H4">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="I4">
         <v>802</v>
@@ -774,13 +777,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5975</v>
+        <v>5977</v>
       </c>
       <c r="C5">
         <v>2553</v>
       </c>
       <c r="D5">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="E5">
         <v>578</v>
@@ -809,31 +812,31 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>7597</v>
+        <v>7600</v>
       </c>
       <c r="C6">
         <v>3822</v>
       </c>
       <c r="D6">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="E6">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F6">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="G6">
         <v>1299</v>
       </c>
       <c r="H6">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="I6">
         <v>960</v>
       </c>
       <c r="J6">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="K6">
         <v>1469</v>
@@ -844,13 +847,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>7860</v>
+        <v>7858</v>
       </c>
       <c r="C7">
         <v>4000</v>
       </c>
       <c r="D7">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="E7">
         <v>580</v>
@@ -879,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>8692</v>
+        <v>8691</v>
       </c>
       <c r="C8">
         <v>4508</v>
@@ -888,7 +891,7 @@
         <v>3618</v>
       </c>
       <c r="E8">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F8">
         <v>6443</v>
@@ -914,16 +917,16 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>8843</v>
+        <v>8844</v>
       </c>
       <c r="C9">
         <v>4375</v>
       </c>
       <c r="D9">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="E9">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F9">
         <v>6896</v>
@@ -949,31 +952,31 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>9413</v>
+        <v>9415</v>
       </c>
       <c r="C10">
         <v>4691</v>
       </c>
       <c r="D10">
-        <v>4061</v>
+        <v>4063</v>
       </c>
       <c r="E10">
         <v>661</v>
       </c>
       <c r="F10">
-        <v>7565</v>
+        <v>7564</v>
       </c>
       <c r="G10">
         <v>1758</v>
       </c>
       <c r="H10">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="I10">
         <v>1494</v>
       </c>
       <c r="J10">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="K10">
         <v>1840</v>
@@ -984,13 +987,13 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>10145</v>
+        <v>10142</v>
       </c>
       <c r="C11">
         <v>5101</v>
       </c>
       <c r="D11">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="E11">
         <v>614</v>
@@ -1002,7 +1005,7 @@
         <v>1716</v>
       </c>
       <c r="H11">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="I11">
         <v>1653</v>
@@ -1019,31 +1022,31 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>10562</v>
+        <v>10561</v>
       </c>
       <c r="C12">
         <v>5661</v>
       </c>
       <c r="D12">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="E12">
         <v>643</v>
       </c>
       <c r="F12">
-        <v>8509</v>
+        <v>8510</v>
       </c>
       <c r="G12">
         <v>1960</v>
       </c>
       <c r="H12">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="I12">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J12">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="K12">
         <v>1875</v>
@@ -1054,19 +1057,19 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>11716</v>
+        <v>11717</v>
       </c>
       <c r="C13">
         <v>6428</v>
       </c>
       <c r="D13">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="E13">
         <v>647</v>
       </c>
       <c r="F13">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="G13">
         <v>2010</v>
@@ -1089,31 +1092,31 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>14205</v>
+        <v>14206</v>
       </c>
       <c r="C14">
         <v>8802</v>
       </c>
       <c r="D14">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="E14">
         <v>675</v>
       </c>
       <c r="F14">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="G14">
         <v>2116</v>
       </c>
       <c r="H14">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="I14">
         <v>1840</v>
       </c>
       <c r="J14">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="K14">
         <v>2101</v>
@@ -1124,19 +1127,19 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>15874</v>
+        <v>15873</v>
       </c>
       <c r="C15">
         <v>10203</v>
       </c>
       <c r="D15">
-        <v>4961</v>
+        <v>4960</v>
       </c>
       <c r="E15">
         <v>710</v>
       </c>
       <c r="F15">
-        <v>9538</v>
+        <v>9539</v>
       </c>
       <c r="G15">
         <v>2244</v>
@@ -1145,7 +1148,7 @@
         <v>5567</v>
       </c>
       <c r="I15">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J15">
         <v>1944</v>
@@ -1159,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>15394</v>
+        <v>15393</v>
       </c>
       <c r="C16">
         <v>9519</v>
@@ -1183,7 +1186,7 @@
         <v>2094</v>
       </c>
       <c r="J16">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="K16">
         <v>2036</v>
@@ -1194,13 +1197,13 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>13931</v>
+        <v>13932</v>
       </c>
       <c r="C17">
         <v>7946</v>
       </c>
       <c r="D17">
-        <v>5192</v>
+        <v>5193</v>
       </c>
       <c r="E17">
         <v>793</v>
@@ -1229,31 +1232,31 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>16924</v>
+        <v>16925</v>
       </c>
       <c r="C18">
         <v>10624</v>
       </c>
       <c r="D18">
-        <v>5499</v>
+        <v>5500</v>
       </c>
       <c r="E18">
         <v>801</v>
       </c>
       <c r="F18">
-        <v>10522</v>
+        <v>10521</v>
       </c>
       <c r="G18">
         <v>2555</v>
       </c>
       <c r="H18">
-        <v>6069</v>
+        <v>6068</v>
       </c>
       <c r="I18">
         <v>1899</v>
       </c>
       <c r="J18">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="K18">
         <v>2195</v>
@@ -1264,13 +1267,13 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>18401</v>
+        <v>18399</v>
       </c>
       <c r="C19">
         <v>11849</v>
       </c>
       <c r="D19">
-        <v>5703</v>
+        <v>5702</v>
       </c>
       <c r="E19">
         <v>849</v>
@@ -1282,7 +1285,7 @@
         <v>2589</v>
       </c>
       <c r="H19">
-        <v>6752</v>
+        <v>6753</v>
       </c>
       <c r="I19">
         <v>2102</v>
@@ -1305,13 +1308,13 @@
         <v>10264</v>
       </c>
       <c r="D20">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="E20">
         <v>862</v>
       </c>
       <c r="F20">
-        <v>11970</v>
+        <v>11971</v>
       </c>
       <c r="G20">
         <v>2827</v>
@@ -1334,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>16490</v>
+        <v>16491</v>
       </c>
       <c r="C21">
         <v>9725</v>
@@ -1369,13 +1372,13 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>19514</v>
+        <v>19515</v>
       </c>
       <c r="C22">
         <v>12200</v>
       </c>
       <c r="D22">
-        <v>6379</v>
+        <v>6380</v>
       </c>
       <c r="E22">
         <v>935</v>
@@ -1393,7 +1396,7 @@
         <v>2491</v>
       </c>
       <c r="J22">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="K22">
         <v>2802</v>
@@ -1404,25 +1407,25 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>18041</v>
+        <v>18040</v>
       </c>
       <c r="C23">
         <v>10225</v>
       </c>
       <c r="D23">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="E23">
         <v>1083</v>
       </c>
       <c r="F23">
-        <v>16719</v>
+        <v>16720</v>
       </c>
       <c r="G23">
         <v>3629</v>
       </c>
       <c r="H23">
-        <v>9977</v>
+        <v>9978</v>
       </c>
       <c r="I23">
         <v>3113</v>
@@ -1463,7 +1466,7 @@
         <v>3142</v>
       </c>
       <c r="J24">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="K24">
         <v>3051</v>
@@ -1474,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>11679</v>
+        <v>11680</v>
       </c>
       <c r="C25">
         <v>4707</v>
@@ -1533,7 +1536,7 @@
         <v>2143</v>
       </c>
       <c r="J26">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="K26">
         <v>2481</v>
@@ -1556,7 +1559,7 @@
         <v>848</v>
       </c>
       <c r="F27">
-        <v>9714</v>
+        <v>9715</v>
       </c>
       <c r="G27">
         <v>2206</v>
@@ -1585,7 +1588,7 @@
         <v>8434</v>
       </c>
       <c r="D28">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="E28">
         <v>949</v>
@@ -1614,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>16600</v>
+        <v>16601</v>
       </c>
       <c r="C29">
         <v>10332</v>
@@ -1632,7 +1635,7 @@
         <v>3012</v>
       </c>
       <c r="H29">
-        <v>7096</v>
+        <v>7095</v>
       </c>
       <c r="I29">
         <v>2328</v>
@@ -1649,7 +1652,7 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>15876</v>
+        <v>15877</v>
       </c>
       <c r="C30">
         <v>9844</v>
@@ -1673,7 +1676,7 @@
         <v>2635</v>
       </c>
       <c r="J30">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="K30">
         <v>2704</v>
@@ -1731,19 +1734,19 @@
         <v>1112</v>
       </c>
       <c r="F32">
-        <v>15306</v>
+        <v>15307</v>
       </c>
       <c r="G32">
         <v>4056</v>
       </c>
       <c r="H32">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="I32">
         <v>2840</v>
       </c>
       <c r="J32">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="K32">
         <v>3335</v>
@@ -1754,19 +1757,19 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>19983</v>
+        <v>19984</v>
       </c>
       <c r="C33">
         <v>12760</v>
       </c>
       <c r="D33">
-        <v>6073</v>
+        <v>6074</v>
       </c>
       <c r="E33">
         <v>1150</v>
       </c>
       <c r="F33">
-        <v>16160</v>
+        <v>16159</v>
       </c>
       <c r="G33">
         <v>4261</v>
@@ -1789,10 +1792,10 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <v>20470</v>
+        <v>20479</v>
       </c>
       <c r="C34">
-        <v>12713</v>
+        <v>12722</v>
       </c>
       <c r="D34">
         <v>6566</v>
@@ -1813,7 +1816,7 @@
         <v>3608</v>
       </c>
       <c r="J34">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="K34">
         <v>3703</v>
@@ -1824,10 +1827,10 @@
         <v>44</v>
       </c>
       <c r="B35">
-        <v>20880</v>
+        <v>20864</v>
       </c>
       <c r="C35">
-        <v>12822</v>
+        <v>12807</v>
       </c>
       <c r="D35">
         <v>6795</v>
@@ -1842,13 +1845,13 @@
         <v>4689</v>
       </c>
       <c r="H35">
-        <v>10664</v>
+        <v>10665</v>
       </c>
       <c r="I35">
         <v>3459</v>
       </c>
       <c r="J35">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="K35">
         <v>3986</v>
@@ -1865,25 +1868,25 @@
         <v>11705</v>
       </c>
       <c r="D36">
-        <v>7051</v>
+        <v>7050</v>
       </c>
       <c r="E36">
         <v>1276</v>
       </c>
       <c r="F36">
-        <v>19416</v>
+        <v>19417</v>
       </c>
       <c r="G36">
         <v>4940</v>
       </c>
       <c r="H36">
-        <v>10923</v>
+        <v>10924</v>
       </c>
       <c r="I36">
         <v>3553</v>
       </c>
       <c r="J36">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="K36">
         <v>3973</v>
@@ -1894,31 +1897,31 @@
         <v>46</v>
       </c>
       <c r="B37">
-        <v>20253</v>
+        <v>20213</v>
       </c>
       <c r="C37">
-        <v>12010</v>
+        <v>11969</v>
       </c>
       <c r="D37">
-        <v>6948</v>
+        <v>6949</v>
       </c>
       <c r="E37">
         <v>1295</v>
       </c>
       <c r="F37">
-        <v>18559</v>
+        <v>18558</v>
       </c>
       <c r="G37">
         <v>4614</v>
       </c>
       <c r="H37">
-        <v>10231</v>
+        <v>10230</v>
       </c>
       <c r="I37">
         <v>3714</v>
       </c>
       <c r="J37">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="K37">
         <v>3703</v>
@@ -1929,10 +1932,10 @@
         <v>47</v>
       </c>
       <c r="B38">
-        <v>19871</v>
+        <v>19883</v>
       </c>
       <c r="C38">
-        <v>11576</v>
+        <v>11588</v>
       </c>
       <c r="D38">
         <v>6994</v>
@@ -1953,7 +1956,7 @@
         <v>3502</v>
       </c>
       <c r="J38">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="K38">
         <v>3559</v>
@@ -1964,10 +1967,10 @@
         <v>48</v>
       </c>
       <c r="B39">
-        <v>19290</v>
+        <v>19314</v>
       </c>
       <c r="C39">
-        <v>11120</v>
+        <v>11144</v>
       </c>
       <c r="D39">
         <v>6944</v>
@@ -1982,13 +1985,13 @@
         <v>5054</v>
       </c>
       <c r="H39">
-        <v>10911</v>
+        <v>10912</v>
       </c>
       <c r="I39">
         <v>3745</v>
       </c>
       <c r="J39">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="K39">
         <v>3691</v>
@@ -1999,25 +2002,25 @@
         <v>49</v>
       </c>
       <c r="B40">
-        <v>18104</v>
+        <v>18105</v>
       </c>
       <c r="C40">
-        <v>10687</v>
+        <v>10688</v>
       </c>
       <c r="D40">
-        <v>6196</v>
+        <v>6195</v>
       </c>
       <c r="E40">
         <v>1222</v>
       </c>
       <c r="F40">
-        <v>20045</v>
+        <v>20046</v>
       </c>
       <c r="G40">
         <v>4882</v>
       </c>
       <c r="H40">
-        <v>10397</v>
+        <v>10398</v>
       </c>
       <c r="I40">
         <v>4766</v>
@@ -2034,31 +2037,31 @@
         <v>50</v>
       </c>
       <c r="B41">
-        <v>20499</v>
+        <v>20470</v>
       </c>
       <c r="C41">
-        <v>12588</v>
+        <v>12558</v>
       </c>
       <c r="D41">
-        <v>6699</v>
+        <v>6700</v>
       </c>
       <c r="E41">
         <v>1212</v>
       </c>
       <c r="F41">
-        <v>20973</v>
+        <v>20971</v>
       </c>
       <c r="G41">
         <v>5022</v>
       </c>
       <c r="H41">
-        <v>10981</v>
+        <v>10979</v>
       </c>
       <c r="I41">
         <v>4970</v>
       </c>
       <c r="J41">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="K41">
         <v>3832</v>
@@ -2069,13 +2072,13 @@
         <v>51</v>
       </c>
       <c r="B42">
-        <v>18716</v>
+        <v>18720</v>
       </c>
       <c r="C42">
-        <v>10483</v>
+        <v>10486</v>
       </c>
       <c r="D42">
-        <v>6983</v>
+        <v>6984</v>
       </c>
       <c r="E42">
         <v>1251</v>
@@ -2093,7 +2096,7 @@
         <v>4496</v>
       </c>
       <c r="J42">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="K42">
         <v>3861</v>
@@ -2104,13 +2107,13 @@
         <v>52</v>
       </c>
       <c r="B43">
-        <v>19686</v>
+        <v>19703</v>
       </c>
       <c r="C43">
-        <v>11213</v>
+        <v>11231</v>
       </c>
       <c r="D43">
-        <v>6879</v>
+        <v>6877</v>
       </c>
       <c r="E43">
         <v>1595</v>
@@ -2128,7 +2131,7 @@
         <v>4696</v>
       </c>
       <c r="J43">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="K43">
         <v>3808</v>
@@ -2139,31 +2142,31 @@
         <v>53</v>
       </c>
       <c r="B44">
-        <v>19471</v>
+        <v>19472</v>
       </c>
       <c r="C44">
-        <v>11423</v>
+        <v>11425</v>
       </c>
       <c r="D44">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="E44">
         <v>1442</v>
       </c>
       <c r="F44">
-        <v>19656</v>
+        <v>19658</v>
       </c>
       <c r="G44">
         <v>5229</v>
       </c>
       <c r="H44">
-        <v>9984</v>
+        <v>9986</v>
       </c>
       <c r="I44">
         <v>4443</v>
       </c>
       <c r="J44">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="K44">
         <v>3939</v>
@@ -2174,25 +2177,25 @@
         <v>54</v>
       </c>
       <c r="B45">
-        <v>18926</v>
+        <v>18916</v>
       </c>
       <c r="C45">
-        <v>10574</v>
+        <v>10562</v>
       </c>
       <c r="D45">
         <v>6989</v>
       </c>
       <c r="E45">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F45">
-        <v>19023</v>
+        <v>19020</v>
       </c>
       <c r="G45">
         <v>5336</v>
       </c>
       <c r="H45">
-        <v>10192</v>
+        <v>10189</v>
       </c>
       <c r="I45">
         <v>3495</v>
@@ -2209,16 +2212,16 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>19048</v>
+        <v>19046</v>
       </c>
       <c r="C46">
-        <v>10761</v>
+        <v>10756</v>
       </c>
       <c r="D46">
-        <v>6921</v>
+        <v>6924</v>
       </c>
       <c r="E46">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F46">
         <v>19066</v>
@@ -2233,7 +2236,7 @@
         <v>3842</v>
       </c>
       <c r="J46">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="K46">
         <v>3764</v>
@@ -2244,13 +2247,13 @@
         <v>56</v>
       </c>
       <c r="B47">
-        <v>19390</v>
+        <v>19396</v>
       </c>
       <c r="C47">
-        <v>10414</v>
+        <v>10422</v>
       </c>
       <c r="D47">
-        <v>7536</v>
+        <v>7534</v>
       </c>
       <c r="E47">
         <v>1440</v>
@@ -2259,16 +2262,16 @@
         <v>18512</v>
       </c>
       <c r="G47">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="H47">
-        <v>9738</v>
+        <v>9739</v>
       </c>
       <c r="I47">
         <v>3834</v>
       </c>
       <c r="J47">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="K47">
         <v>3713</v>
@@ -2279,25 +2282,25 @@
         <v>57</v>
       </c>
       <c r="B48">
-        <v>18557</v>
+        <v>18561</v>
       </c>
       <c r="C48">
-        <v>10075</v>
+        <v>10081</v>
       </c>
       <c r="D48">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="E48">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F48">
-        <v>17700</v>
+        <v>17703</v>
       </c>
       <c r="G48">
         <v>4721</v>
       </c>
       <c r="H48">
-        <v>9587</v>
+        <v>9590</v>
       </c>
       <c r="I48">
         <v>3392</v>
@@ -2317,28 +2320,28 @@
         <v>18202</v>
       </c>
       <c r="C49">
-        <v>9303</v>
+        <v>9301</v>
       </c>
       <c r="D49">
         <v>7396</v>
       </c>
       <c r="E49">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="F49">
-        <v>17688</v>
+        <v>17684</v>
       </c>
       <c r="G49">
         <v>4610</v>
       </c>
       <c r="H49">
-        <v>9507</v>
+        <v>9502</v>
       </c>
       <c r="I49">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="J49">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="K49">
         <v>3610</v>
@@ -2349,31 +2352,31 @@
         <v>59</v>
       </c>
       <c r="B50">
-        <v>17064</v>
+        <v>17060</v>
       </c>
       <c r="C50">
-        <v>9216</v>
+        <v>9209</v>
       </c>
       <c r="D50">
-        <v>6539</v>
+        <v>6543</v>
       </c>
       <c r="E50">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F50">
-        <v>16402</v>
+        <v>16403</v>
       </c>
       <c r="G50">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="H50">
-        <v>8463</v>
+        <v>8464</v>
       </c>
       <c r="I50">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="J50">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="K50">
         <v>3308</v>
@@ -2384,31 +2387,31 @@
         <v>60</v>
       </c>
       <c r="B51">
-        <v>15881</v>
+        <v>15877</v>
       </c>
       <c r="C51">
-        <v>8723</v>
+        <v>8721</v>
       </c>
       <c r="D51">
-        <v>5915</v>
+        <v>5912</v>
       </c>
       <c r="E51">
         <v>1244</v>
       </c>
       <c r="F51">
-        <v>15104</v>
+        <v>15106</v>
       </c>
       <c r="G51">
         <v>4159</v>
       </c>
       <c r="H51">
-        <v>7799</v>
+        <v>7801</v>
       </c>
       <c r="I51">
         <v>3147</v>
       </c>
       <c r="J51">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="K51">
         <v>3267</v>
@@ -2419,31 +2422,31 @@
         <v>61</v>
       </c>
       <c r="B52">
-        <v>14836</v>
+        <v>14840</v>
       </c>
       <c r="C52">
-        <v>7381</v>
+        <v>7386</v>
       </c>
       <c r="D52">
-        <v>6149</v>
+        <v>6147</v>
       </c>
       <c r="E52">
         <v>1306</v>
       </c>
       <c r="F52">
-        <v>15893</v>
+        <v>15895</v>
       </c>
       <c r="G52">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="H52">
-        <v>7799</v>
+        <v>7801</v>
       </c>
       <c r="I52">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="J52">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="K52">
         <v>3290</v>
@@ -2454,31 +2457,31 @@
         <v>62</v>
       </c>
       <c r="B53">
-        <v>14439</v>
+        <v>14450</v>
       </c>
       <c r="C53">
-        <v>7157</v>
+        <v>7164</v>
       </c>
       <c r="D53">
         <v>5929</v>
       </c>
       <c r="E53">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="F53">
-        <v>15006</v>
+        <v>15001</v>
       </c>
       <c r="G53">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="H53">
-        <v>7173</v>
+        <v>7168</v>
       </c>
       <c r="I53">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="J53">
-        <v>2436</v>
+        <v>2441</v>
       </c>
       <c r="K53">
         <v>3230</v>
@@ -2489,22 +2492,22 @@
         <v>63</v>
       </c>
       <c r="B54">
-        <v>14739</v>
+        <v>14735</v>
       </c>
       <c r="C54">
-        <v>7511</v>
+        <v>7503</v>
       </c>
       <c r="D54">
-        <v>5832</v>
+        <v>5839</v>
       </c>
       <c r="E54">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="F54">
         <v>14503</v>
       </c>
       <c r="G54">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="H54">
         <v>6718</v>
@@ -2513,7 +2516,7 @@
         <v>3615</v>
       </c>
       <c r="J54">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="K54">
         <v>3204</v>
@@ -2524,31 +2527,31 @@
         <v>64</v>
       </c>
       <c r="B55">
-        <v>14648</v>
+        <v>14630</v>
       </c>
       <c r="C55">
-        <v>7213</v>
+        <v>7199</v>
       </c>
       <c r="D55">
-        <v>6056</v>
+        <v>6051</v>
       </c>
       <c r="E55">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="F55">
-        <v>14409</v>
+        <v>14414</v>
       </c>
       <c r="G55">
         <v>4217</v>
       </c>
       <c r="H55">
-        <v>6810</v>
+        <v>6814</v>
       </c>
       <c r="I55">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="J55">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="K55">
         <v>3021</v>
@@ -2559,31 +2562,31 @@
         <v>65</v>
       </c>
       <c r="B56">
-        <v>15132</v>
+        <v>15144</v>
       </c>
       <c r="C56">
-        <v>7674</v>
+        <v>7686</v>
       </c>
       <c r="D56">
-        <v>6056</v>
+        <v>6053</v>
       </c>
       <c r="E56">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="F56">
         <v>15252</v>
       </c>
       <c r="G56">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="H56">
-        <v>7465</v>
+        <v>7467</v>
       </c>
       <c r="I56">
         <v>3172</v>
       </c>
       <c r="J56">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="K56">
         <v>3278</v>
@@ -2594,31 +2597,31 @@
         <v>66</v>
       </c>
       <c r="B57">
-        <v>16254</v>
+        <v>16280</v>
       </c>
       <c r="C57">
-        <v>8176</v>
+        <v>8195</v>
       </c>
       <c r="D57">
         <v>6189</v>
       </c>
       <c r="E57">
-        <v>1889</v>
+        <v>1896</v>
       </c>
       <c r="F57">
-        <v>15234</v>
+        <v>15228</v>
       </c>
       <c r="G57">
-        <v>4774</v>
+        <v>4776</v>
       </c>
       <c r="H57">
-        <v>7270</v>
+        <v>7264</v>
       </c>
       <c r="I57">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="J57">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="K57">
         <v>3337</v>
@@ -2629,31 +2632,31 @@
         <v>67</v>
       </c>
       <c r="B58">
-        <v>15541</v>
+        <v>15532</v>
       </c>
       <c r="C58">
-        <v>7843</v>
+        <v>7831</v>
       </c>
       <c r="D58">
-        <v>6458</v>
+        <v>6470</v>
       </c>
       <c r="E58">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="F58">
         <v>16158</v>
       </c>
       <c r="G58">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="H58">
         <v>7667</v>
       </c>
       <c r="I58">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="J58">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="K58">
         <v>3446</v>
@@ -2664,31 +2667,31 @@
         <v>68</v>
       </c>
       <c r="B59">
-        <v>16307</v>
+        <v>16275</v>
       </c>
       <c r="C59">
-        <v>8637</v>
+        <v>8602</v>
       </c>
       <c r="D59">
-        <v>6219</v>
+        <v>6210</v>
       </c>
       <c r="E59">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="F59">
-        <v>15953</v>
+        <v>15960</v>
       </c>
       <c r="G59">
         <v>5150</v>
       </c>
       <c r="H59">
-        <v>7407</v>
+        <v>7413</v>
       </c>
       <c r="I59">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="J59">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="K59">
         <v>3253</v>
@@ -2699,31 +2702,31 @@
         <v>69</v>
       </c>
       <c r="B60">
-        <v>18300</v>
+        <v>18327</v>
       </c>
       <c r="C60">
-        <v>9934</v>
+        <v>9959</v>
       </c>
       <c r="D60">
-        <v>6620</v>
+        <v>6616</v>
       </c>
       <c r="E60">
-        <v>1746</v>
+        <v>1752</v>
       </c>
       <c r="F60">
-        <v>16211</v>
+        <v>16210</v>
       </c>
       <c r="G60">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="H60">
-        <v>7606</v>
+        <v>7607</v>
       </c>
       <c r="I60">
         <v>3359</v>
       </c>
       <c r="J60">
-        <v>2486</v>
+        <v>2494</v>
       </c>
       <c r="K60">
         <v>3266</v>
@@ -2734,31 +2737,31 @@
         <v>70</v>
       </c>
       <c r="B61">
-        <v>18771</v>
+        <v>18824</v>
       </c>
       <c r="C61">
-        <v>10566</v>
+        <v>10610</v>
       </c>
       <c r="D61">
         <v>6639</v>
       </c>
       <c r="E61">
-        <v>1567</v>
+        <v>1574</v>
       </c>
       <c r="F61">
-        <v>16957</v>
+        <v>16950</v>
       </c>
       <c r="G61">
-        <v>5364</v>
+        <v>5368</v>
       </c>
       <c r="H61">
-        <v>8244</v>
+        <v>8235</v>
       </c>
       <c r="I61">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="J61">
-        <v>2452</v>
+        <v>2461</v>
       </c>
       <c r="K61">
         <v>3647</v>
@@ -2769,31 +2772,31 @@
         <v>71</v>
       </c>
       <c r="B62">
-        <v>19167</v>
+        <v>19133</v>
       </c>
       <c r="C62">
-        <v>10228</v>
+        <v>10204</v>
       </c>
       <c r="D62">
-        <v>7336</v>
+        <v>7356</v>
       </c>
       <c r="E62">
-        <v>1604</v>
+        <v>1574</v>
       </c>
       <c r="F62">
         <v>18070</v>
       </c>
       <c r="G62">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="H62">
         <v>8792</v>
       </c>
       <c r="I62">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="J62">
-        <v>2575</v>
+        <v>2539</v>
       </c>
       <c r="K62">
         <v>3605</v>
@@ -2804,31 +2807,31 @@
         <v>72</v>
       </c>
       <c r="B63">
-        <v>18934</v>
+        <v>18893</v>
       </c>
       <c r="C63">
-        <v>10039</v>
+        <v>9973</v>
       </c>
       <c r="D63">
-        <v>7258</v>
+        <v>7243</v>
       </c>
       <c r="E63">
-        <v>1636</v>
+        <v>1676</v>
       </c>
       <c r="F63">
-        <v>18970</v>
+        <v>18980</v>
       </c>
       <c r="G63">
-        <v>5627</v>
+        <v>5628</v>
       </c>
       <c r="H63">
-        <v>9512</v>
+        <v>9521</v>
       </c>
       <c r="I63">
-        <v>3830</v>
+        <v>3832</v>
       </c>
       <c r="J63">
-        <v>2520</v>
+        <v>2555</v>
       </c>
       <c r="K63">
         <v>3562</v>
@@ -2839,31 +2842,31 @@
         <v>73</v>
       </c>
       <c r="B64">
-        <v>18220</v>
+        <v>18268</v>
       </c>
       <c r="C64">
-        <v>9371</v>
+        <v>9409</v>
       </c>
       <c r="D64">
-        <v>7199</v>
+        <v>7194</v>
       </c>
       <c r="E64">
-        <v>1649</v>
+        <v>1665</v>
       </c>
       <c r="F64">
-        <v>18496</v>
+        <v>18495</v>
       </c>
       <c r="G64">
-        <v>5730</v>
+        <v>5727</v>
       </c>
       <c r="H64">
-        <v>8904</v>
+        <v>8907</v>
       </c>
       <c r="I64">
         <v>3861</v>
       </c>
       <c r="J64">
-        <v>2404</v>
+        <v>2434</v>
       </c>
       <c r="K64">
         <v>3539</v>
@@ -2874,31 +2877,31 @@
         <v>74</v>
       </c>
       <c r="B65">
-        <v>18417</v>
+        <v>18479</v>
       </c>
       <c r="C65">
-        <v>9546</v>
+        <v>9604</v>
       </c>
       <c r="D65">
-        <v>7307</v>
+        <v>7309</v>
       </c>
       <c r="E65">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F65">
-        <v>19183</v>
+        <v>19174</v>
       </c>
       <c r="G65">
-        <v>5584</v>
+        <v>5588</v>
       </c>
       <c r="H65">
-        <v>9714</v>
+        <v>9703</v>
       </c>
       <c r="I65">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="J65">
-        <v>2393</v>
+        <v>2405</v>
       </c>
       <c r="K65">
         <v>3904</v>
@@ -2909,31 +2912,31 @@
         <v>75</v>
       </c>
       <c r="B66">
-        <v>17912</v>
+        <v>17839</v>
       </c>
       <c r="C66">
-        <v>9015</v>
+        <v>8980</v>
       </c>
       <c r="D66">
-        <v>7187</v>
+        <v>7209</v>
       </c>
       <c r="E66">
-        <v>1709</v>
+        <v>1649</v>
       </c>
       <c r="F66">
-        <v>18087</v>
+        <v>18086</v>
       </c>
       <c r="G66">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="H66">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="I66">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="J66">
-        <v>2440</v>
+        <v>2333</v>
       </c>
       <c r="K66">
         <v>3711</v>
@@ -2944,31 +2947,31 @@
         <v>76</v>
       </c>
       <c r="B67">
-        <v>17073</v>
+        <v>17066</v>
       </c>
       <c r="C67">
-        <v>8806</v>
+        <v>8729</v>
       </c>
       <c r="D67">
-        <v>6665</v>
+        <v>6649</v>
       </c>
       <c r="E67">
-        <v>1602</v>
+        <v>1688</v>
       </c>
       <c r="F67">
-        <v>17632</v>
+        <v>17642</v>
       </c>
       <c r="G67">
         <v>5063</v>
       </c>
       <c r="H67">
-        <v>8704</v>
+        <v>8713</v>
       </c>
       <c r="I67">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="J67">
-        <v>2382</v>
+        <v>2480</v>
       </c>
       <c r="K67">
         <v>3547</v>
@@ -2979,31 +2982,31 @@
         <v>77</v>
       </c>
       <c r="B68">
-        <v>17328</v>
+        <v>17401</v>
       </c>
       <c r="C68">
-        <v>9124</v>
+        <v>9176</v>
       </c>
       <c r="D68">
-        <v>6523</v>
+        <v>6517</v>
       </c>
       <c r="E68">
-        <v>1681</v>
+        <v>1708</v>
       </c>
       <c r="F68">
         <v>17577</v>
       </c>
       <c r="G68">
-        <v>5139</v>
+        <v>5135</v>
       </c>
       <c r="H68">
-        <v>8678</v>
+        <v>8681</v>
       </c>
       <c r="I68">
         <v>3761</v>
       </c>
       <c r="J68">
-        <v>2320</v>
+        <v>2393</v>
       </c>
       <c r="K68">
         <v>3581</v>
@@ -3014,31 +3017,31 @@
         <v>78</v>
       </c>
       <c r="B69">
-        <v>16530</v>
+        <v>16586</v>
       </c>
       <c r="C69">
-        <v>8448</v>
+        <v>8515</v>
       </c>
       <c r="D69">
-        <v>6293</v>
+        <v>6295</v>
       </c>
       <c r="E69">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="F69">
-        <v>16676</v>
+        <v>16667</v>
       </c>
       <c r="G69">
-        <v>4662</v>
+        <v>4665</v>
       </c>
       <c r="H69">
-        <v>8275</v>
+        <v>8265</v>
       </c>
       <c r="I69">
-        <v>3739</v>
+        <v>3736</v>
       </c>
       <c r="J69">
-        <v>2112</v>
+        <v>2396</v>
       </c>
       <c r="K69">
         <v>3524</v>
@@ -3049,31 +3052,31 @@
         <v>79</v>
       </c>
       <c r="B70">
-        <v>16812</v>
+        <v>16697</v>
       </c>
       <c r="C70">
-        <v>8782</v>
+        <v>8735</v>
       </c>
       <c r="D70">
-        <v>6399</v>
+        <v>6420</v>
       </c>
       <c r="E70">
-        <v>1632</v>
+        <v>1542</v>
       </c>
       <c r="F70">
-        <v>15652</v>
+        <v>15650</v>
       </c>
       <c r="G70">
         <v>4212</v>
       </c>
       <c r="H70">
-        <v>8192</v>
+        <v>8190</v>
       </c>
       <c r="I70">
         <v>3249</v>
       </c>
       <c r="J70">
-        <v>2111</v>
+        <v>2347</v>
       </c>
       <c r="K70">
         <v>3275</v>
@@ -3087,25 +3090,25 @@
         <v>17982</v>
       </c>
       <c r="C71">
-        <v>9758</v>
+        <v>9651</v>
       </c>
       <c r="D71">
-        <v>6892</v>
+        <v>6874</v>
       </c>
       <c r="E71">
-        <v>1333</v>
+        <v>1457</v>
       </c>
       <c r="F71">
-        <v>13052</v>
+        <v>13061</v>
       </c>
       <c r="G71">
         <v>3122</v>
       </c>
       <c r="H71">
-        <v>6697</v>
+        <v>6704</v>
       </c>
       <c r="I71">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="J71">
         <v>1520</v>
@@ -3119,31 +3122,31 @@
         <v>81</v>
       </c>
       <c r="B72">
-        <v>18562</v>
+        <v>18677</v>
       </c>
       <c r="C72">
-        <v>11201</v>
+        <v>11283</v>
       </c>
       <c r="D72">
-        <v>5812</v>
+        <v>5806</v>
       </c>
       <c r="E72">
-        <v>1549</v>
+        <v>1588</v>
       </c>
       <c r="F72">
-        <v>14577</v>
+        <v>14576</v>
       </c>
       <c r="G72">
-        <v>4099</v>
+        <v>4096</v>
       </c>
       <c r="H72">
-        <v>7126</v>
+        <v>7128</v>
       </c>
       <c r="I72">
         <v>3352</v>
       </c>
       <c r="J72">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="K72">
         <v>2604</v>
@@ -3154,31 +3157,31 @@
         <v>82</v>
       </c>
       <c r="B73">
-        <v>19918</v>
+        <v>19995</v>
       </c>
       <c r="C73">
-        <v>11747</v>
+        <v>11861</v>
       </c>
       <c r="D73">
-        <v>6274</v>
+        <v>6276</v>
       </c>
       <c r="E73">
-        <v>1897</v>
+        <v>1858</v>
       </c>
       <c r="F73">
-        <v>15963</v>
+        <v>15956</v>
       </c>
       <c r="G73">
-        <v>4892</v>
+        <v>4896</v>
       </c>
       <c r="H73">
-        <v>7839</v>
+        <v>7829</v>
       </c>
       <c r="I73">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="J73">
-        <v>1435</v>
+        <v>1483</v>
       </c>
       <c r="K73">
         <v>2887</v>
@@ -3189,34 +3192,69 @@
         <v>83</v>
       </c>
       <c r="B74">
-        <v>21855</v>
+        <v>21973</v>
       </c>
       <c r="C74">
-        <v>13685</v>
+        <v>13863</v>
       </c>
       <c r="D74">
-        <v>6389</v>
+        <v>6414</v>
       </c>
       <c r="E74">
-        <v>1781</v>
+        <v>1696</v>
       </c>
       <c r="F74">
-        <v>19979</v>
+        <v>20009</v>
       </c>
       <c r="G74">
-        <v>5853</v>
+        <v>5858</v>
       </c>
       <c r="H74">
-        <v>9772</v>
+        <v>9793</v>
       </c>
       <c r="I74">
-        <v>4355</v>
+        <v>4358</v>
       </c>
       <c r="J74">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="K74">
-        <v>3190</v>
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>23421</v>
+      </c>
+      <c r="C75">
+        <v>14920</v>
+      </c>
+      <c r="D75">
+        <v>7013</v>
+      </c>
+      <c r="E75">
+        <v>1488</v>
+      </c>
+      <c r="F75">
+        <v>20944</v>
+      </c>
+      <c r="G75">
+        <v>6242</v>
+      </c>
+      <c r="H75">
+        <v>10245</v>
+      </c>
+      <c r="I75">
+        <v>4457</v>
+      </c>
+      <c r="J75">
+        <v>1564</v>
+      </c>
+      <c r="K75">
+        <v>3389</v>
       </c>
     </row>
   </sheetData>
